--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/65_Rize_2019.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2019/65_Rize_2019.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D140243-399E-4781-9B8D-8985BBC480CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8AF43DA-708E-4EAE-B7AF-97B7345F24A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" xr2:uid="{DF09CAF5-C123-4D9C-A220-6049C48B3C40}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="674" xr2:uid="{BADECEE2-9421-4B1B-8054-B916CA25565B}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -953,13 +953,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{2DC66D60-FD92-40BB-9513-F71DBA37AE37}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{6A569974-17CC-4A62-B3E9-03CD973E08CB}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{ACFAFAE1-7B9B-44ED-BF02-64CE42EFB3A7}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{AE49BD34-0916-478C-A10E-28536A231E4E}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{1C66B1EA-1578-43BB-BC89-D6AB72EDA78F}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{20C7E992-3E21-42FE-A24E-13BDCDBA0754}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{20D89B40-81A2-4DF9-8631-DB3A140E4262}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{A7BB6F51-65EF-479B-9671-6478DD194361}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{13052D2B-44DA-42C9-A59D-52FC107AB051}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{5ED1E89A-99B6-4A68-ADE4-37A6DBBE1D0C}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{4CAE57B1-3A2A-4590-9A77-ABD74CCC19F7}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{97DA9B85-561E-4708-94D5-BD9AA9B5B408}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{8F492228-D22C-44AC-9B60-37EF7B6FB71F}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{70CEE920-ADD9-499C-BA35-D153A71B2FD7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1329,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5776393B-E3BF-4CF4-9C4C-CF0167CEFE40}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC52F948-518B-493E-A4E1-6AB126CDDC26}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2580,18 +2580,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{56C6E8F7-0CE2-4202-804D-9AD84383CD35}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6BD2DA18-691E-442C-8C10-19D2A6D048F1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{344981E6-7FD4-45E9-985A-FF2A99488474}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F8BF72EB-CEFE-46FC-BF5E-AE8DFBF1B752}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5221501B-96B9-4372-8537-45FCBB5F1A4F}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{73550892-58A7-4E71-9F98-36D613A4C853}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A6519455-3BBF-480C-A740-1899590B9BB5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6BDC03E9-1F64-4469-BD35-3CE09E021D5B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6E11FB32-E95C-4371-B3D3-6B240B45E849}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{36AE77AF-AC2F-499F-85FD-5E66882DAD46}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{20FDBA9C-6086-4F33-BA99-7837A7405AEB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{353B824C-76B2-4DC2-BB20-C2CEB02FAF14}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{15BEEA41-7C66-4AD0-9756-0C8ECFAA2971}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C33C46B6-EC6A-46B7-9194-85A0E0E33FE3}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9EBBEFD7-9220-4298-B15E-5125231D1041}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6168C89D-2EA6-432A-B6D3-0C64148401F2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{54855825-F656-471C-B5D2-B1C8032D3846}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{17BE7DDE-8503-4AE8-BF8C-49C0186F9C78}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6CBE8ED2-777B-47CB-A5AD-64AA95DDD1A4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CC357E7E-A7DC-4AC0-9991-C6B60DA46E90}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5465D7FA-FE37-4AEF-AA72-88F380137A77}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FDE0747D-63EF-49DD-B9B1-996B062CA199}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DC3A289B-33CF-4CAD-A655-698DF32D5504}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DC422B30-F095-45F5-AA8B-A946515CA8BA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2604,7 +2604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40F1A960-F7B3-43D0-8409-05246F84CD1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5B064D-18F5-4582-A6B4-60B89F517807}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3850,18 +3850,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A27903B8-8E3B-478D-A425-46AC217BBA15}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{27C7DD31-1B58-4909-A340-E00129D5862C}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BB76C02E-5BC7-4CEC-9F36-B6038A624C62}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4417DD83-E126-4A64-9FA7-56B2B11A8740}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E2014816-6C9E-45F9-A8B7-76F1F571AD76}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BFA836B5-52DF-4B5E-884D-85C8B1E8C0DF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EC323540-1192-4B59-A636-C43D0B390F8D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1689CCD8-0DDD-42B0-9C9F-EE8186C83312}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{099761D8-7C0C-49C4-9B24-C90BAFBC3320}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AC36A2E8-9962-4795-B964-2306041785B0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8F870444-FF1F-4643-96B1-CC08D8CE94E9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{81206F5C-DF28-4AA9-83A9-46CC90F46009}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F50AAAF9-F185-4A2B-89BE-66BF0F32D2DA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CC2AFCB2-35E4-4C3C-B228-563818D6FEE6}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9EAEDC24-E2CD-4213-9D3C-5D01F81C4F21}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{00E7DE39-5DB9-4618-9B56-F3AD2F2DC5C8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2A8CEC22-8F5E-4EC4-B7B9-0AF0A308D5E8}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CECE7E8E-415F-4FD2-9D5A-28988208DA27}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FCE2F620-CE81-4661-ABF5-9762DB132C60}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DD9D7212-45B7-420B-8E54-C1B694E17DE2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{67F94DB2-24EE-4987-B59D-347E32362910}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{41F906FA-398B-4D23-AD59-5977D32ABE63}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2CE844DA-806C-4D3A-A273-636BEDD75874}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A9F057FE-9F76-49FB-858F-362BAC9C02CA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3874,7 +3874,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3531C623-54BA-4CB1-8994-8CBE1F513421}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89570439-2249-4887-AAEE-84C909EE5AAE}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5116,18 +5116,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{21C4B9E4-FD03-4ECC-879A-F18DBD4D3FE7}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{203A7703-3058-44C8-B5B5-54D5BD250578}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B3B7F914-24B9-43B7-B517-B8FA096F0D2C}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9C69A006-9F5D-4FB4-9D4D-C7DCC9B1F320}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8DE8D693-BC2E-486A-9153-47277FCCCA3A}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F73A0084-776E-4534-AD77-B34716E61556}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{933EE9E6-7D4E-43D3-98F8-FA523B15C34B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E292B66F-6607-4F2C-A669-00B4DB316C1E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D3E0857B-8FCB-4B36-91DD-5FF7530DF21A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{14124507-888D-4252-A875-5CC11E05C4FB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7B51BC97-2A8B-431A-B882-90BA55A5EBC6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D78AFA31-A24A-4AC9-9497-34528D75CB41}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{553F79A3-0548-487E-B0DC-649E7E8DCB4B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3C0DAC34-9DEF-4B54-9120-09E8AC598C41}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{451FDCD1-92F6-4D3A-943E-0D24E3E82E9C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{04BC217E-75B4-4AAB-97CD-5530F46B5ACF}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FED9CF81-9D63-4B25-8C27-981661E3CA04}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{09757F9B-2409-488E-B7DA-D651C12492C1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8D2293B0-520A-4E21-A8D6-FAC2AFD9FCCD}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{57526ADB-0676-408C-BEDF-77621B939F76}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D9A3A5EE-1E44-4CCE-9D96-C1DFD0393FEF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{72AA32BA-6223-4812-83BF-99BFD28499C5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7DB46417-5FCD-42C6-A0A5-B8B9CD9E0DB1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5C234453-2851-48A4-8BAD-0613D1C3C0EE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5140,7 +5140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B23E99-5D50-4924-81F8-975DF5EF2D41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60028401-DCA7-4CC4-814A-2C7B56B4714F}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6376,18 +6376,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CDF34B9C-A41E-4BF0-A639-63BFC299196F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1D826940-141A-4788-AF4D-FC72C7C79280}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1430280C-29F6-4EFD-B772-C783D74129DE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3A24BC4D-83A6-4CBF-ABA4-6925E8A023FA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5CB5C9B5-4680-4E71-9398-C98C17D37064}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E623A9B1-EC4F-4334-A4F5-00ADC809A280}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{41752D8E-D00B-438F-BDC4-49CDC7EE66BC}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{33C874A0-CEA5-4CAD-93E6-BF091D549B2E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{90280240-7BD6-494D-8291-0FE096D125BD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{03A53D78-25AE-462B-8EC6-10E16A01FF0B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FD269429-D48B-494B-AB8B-B2B201CA33E7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FF36C111-C11C-4602-AA84-C15995E0C2EC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{792B14D2-95F2-4E71-BBF2-5C0D7E9F1D9E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9ACA0188-5727-4CA7-A1F0-2D30F251CB83}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3EBF0719-E5F2-4DFB-B0A0-5F9F3300BFE8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{623B5196-3C6B-4662-BEEC-FC851054C12C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{90AC01BA-5C5A-4030-A4E5-F76C9760C1E3}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{499C27D5-E68E-4481-BF63-CC29F91245D1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4FB701E0-16DF-459D-BC1B-91056F34C25C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DF4623F6-373D-448C-8EDF-34390463CC99}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7C94193A-8D0E-490E-8A25-0ADA2C2B7B5B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7AD1D5CD-AD40-4BBD-A6EA-DBC682F04B97}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{043A1C0D-D757-471E-BF57-960A92BE72D1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0119950E-926D-4F81-BAEF-A45F368ECBCB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6400,7 +6400,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9912FF8B-5A0A-4675-AFBB-ADD748BDC1B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49395C0-7FE8-4885-85E3-202134B31B8E}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7653,18 +7653,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6BE0A3EA-957E-4387-B24B-A13A29F80D4D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{28B0B126-C65A-424C-A71F-9EA1E8FB2144}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8A90A694-AC41-42E2-B78D-B7A5B5FD09A1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3A2AC4BD-BFD6-4CFB-B3BE-F77B8E0DF144}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2D76AD93-342A-4D01-B1CE-38C5751425C3}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FB72E85E-1D98-430A-9588-C797C04B1242}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6741F80D-235A-442F-9777-21428974AD0E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{144326FC-BC19-45B6-9619-462108D806C3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{95288AE6-3E46-41BC-A25A-0B7E9C3088B4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{96E85ACF-5631-43D8-8F77-1053957C917A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EC8C14E3-B8FB-406F-9BE0-4B6FBA41F3BC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8BE4D164-B604-4297-8005-0BB719CDC500}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F4458B6C-FFF0-41F3-A04C-B21C4F0779B0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8EC048E3-2DD1-418A-B6F8-89541496ECCD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6498D6FE-531E-4ED0-AA74-05D8F3C7D79A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CB36F343-EA20-4B59-B660-2EEF82D771A5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{657821EE-F9BE-4D12-9988-2C7AE25E7B1B}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B174FC8B-C2A4-40DB-8293-29CD3D00BDB3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5D3D9350-E4DA-440C-81B1-D3602AD3316E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E918AC76-3990-40AB-A19B-67155EF6E942}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DD6F3C92-A4E9-43EE-A00B-D3FAA048CCF0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D54C7C5F-F704-4358-8BA0-B2A7418083E7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{736EC99B-43FC-465F-8A20-D6EF63B82483}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D320AE37-0742-47DC-838F-565B0A20EFE9}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7677,7 +7677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EACD5DF8-E5C2-4601-A139-F7051DF4FBDB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E8CA55-1D35-4217-9FF9-48BA82E78E86}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8930,18 +8930,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{619DC232-0325-484D-94EF-18B6D891435A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{75CBF11F-5EEA-4FA5-854B-B1B52ABA3339}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E1709D96-D2B8-4BED-B975-70FA73E61EF9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C2C7783F-1780-4ED5-AE50-DBA687523952}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{201DE8C9-27DC-4FBA-A334-8F59B37DE623}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4EC6F0F7-DE3D-4EA6-A3B1-4751C56296E5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{059FD2DD-EF84-4CDA-ACF4-83BD1BF0AFD1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2DD3F051-6B17-49C5-8A7A-295F19190F12}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6BCDAAEB-848E-4107-834C-1EFA16735D39}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2B4EE864-D5F0-493E-B314-111CE58A7829}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{24984051-5054-4730-B44F-89BEB69CC72D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{034F9109-DFA7-4B4A-9373-E7141BDE9740}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BF523C1F-A735-4978-B2F2-7E03982DD7F0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E97064FA-6797-4BDF-8D01-B4C395ABB7BC}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E7D92D0D-1395-4A31-8557-B2BCB794AA50}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B6CD6E41-CD71-47E1-9239-92347642579D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{070D78F8-4C58-42C3-B1F7-2FFF4B5A687B}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7BAD8D84-FB99-4214-B56F-E58C90B78C60}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C2780AB3-C219-47AE-BB43-48D12E5AC2B4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DAA0A460-B319-4C1C-A6C2-300510F928E9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9398109F-6DFC-4336-A935-2D0F905DF5B2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{986B2FF2-2998-473F-81AB-E4D183977F8B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C1A91CD9-C83B-4E53-A6E4-A2FA0D99A1EC}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2D4D5D91-253D-4F91-9FCD-B3D5E02B4459}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8954,7 +8954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E16F93B1-A96A-49CE-B68B-8227A3D6EAA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2DA66B-2E45-455B-ABF2-B0E2AAEDC9D7}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10207,18 +10207,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D6D429B3-AD56-4428-8D86-E8A446E22DB9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{58D07378-0CE6-4DD7-B0CD-17B2F8853A4E}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{607D2893-33B3-4AE4-8E51-7C2F92A8107B}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{25166ABD-EA8F-48A3-8311-6D2B0D57E18F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F658F8CD-4668-4993-83F7-910A28132CC6}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BA93D967-0B32-471A-B7A5-BA896DB2228B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A3D690D6-E1F0-4183-AE0D-6617822F455E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CB64CF95-A9EF-43D1-8D53-581278484B49}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A4C53BAC-82D5-4EE5-8329-4C270A7807DA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{27DA7321-C814-4A8E-888E-B9EDED1EC1F1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8164EC3E-D776-435B-917A-21407BA11C56}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{03AB5C92-7571-4229-BC5C-679040ED640E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DC618A31-B3E1-4FB4-BC31-5891BC234C39}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1DC794CE-2379-4C08-AB59-F08DF2D4A643}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{207866E5-2BF0-4EFF-B48A-6BD38CC3B3B4}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{33A18975-FCF8-404D-991A-B20CA9F35CCE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FE5F1F70-54E2-4057-9888-1370F239EB06}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C6CFAF96-9FE3-42FE-B083-26627441CCBA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{48CF82FF-42CD-497D-BFFE-AF8305516E00}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{85A1F939-7312-4BF0-9470-DBE0629DA0E4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5510DF1C-E31D-4FDF-AD2A-C039FBD2CD53}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A6D49316-E2DD-4E3E-B6F3-CCBA99E0D865}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8004FE47-05E9-4089-AEA3-F62123CCBB2B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{376F4669-023C-45D1-A74A-8507051DE324}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10231,7 +10231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B28F2D0-66CF-44E5-803E-DA50242D21D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4B1BF8-EF67-4C45-9475-51B7F7365435}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11484,18 +11484,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F37E253E-BA0A-47F8-94DD-C22ACEB4B7C0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8FF46AA9-F6C6-4700-AB2A-2573F6D53ACE}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{374FA801-F05C-48B7-AAF9-6CAB22DD0760}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BC77ADED-32FB-440D-B29C-D1D8B533874A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9BD7C114-55C1-4055-8525-6F11FD4287D3}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A2D00F9B-B56A-45E5-86FA-02D397F49E77}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{993363C8-875E-4DE7-A2DD-F4BFDC232C0B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5E3D585D-9035-4046-8200-C44EF37D363D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{50DB948C-4FB9-4982-A735-18DB631318C0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{27713AA2-076E-4DC0-9078-D0243C09E4F1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1E65C2E8-AC30-47D2-B565-6958BBD9EE32}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{25EEAACE-D473-4EE9-863C-C54AFF2606CC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{089F4358-1525-490C-A8D4-95BBCBE640B4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{87AB2B21-E4FE-42C9-90D9-9D9E6122FB52}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E0680CEC-A816-4BA8-8EAD-97A15CD79F86}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4B84557B-6097-40C4-9157-4C5870DAE384}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{941EA88A-8078-44C9-B330-E2E84D93456C}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DB64C16E-0BB9-4B8E-B3AC-5020AB856733}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8CC8064B-7BB2-4081-9328-407F204E5DD0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B309AC26-CA41-45B1-9E9A-853BD4BDD910}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B143E8D0-7810-4893-8EC8-96D9EF0935F0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{665EA5ED-4A5A-40C4-8459-97D9F331DB50}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6A29A8ED-0243-4806-ABAE-FC426477215E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C5D5BA14-4117-4C00-91EC-FDA1CF9A6AFB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11508,7 +11508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9938CA-99CC-4A11-9C4E-D16D3C04C505}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F4B0CE6-81AF-42D3-BB07-4E4CDA59D211}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -12762,18 +12762,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{826A58DC-D405-47B7-AB89-9C51D0CA4561}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8B1C9C4E-BA2B-41B1-AA53-C1D83E7B90C3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{15D5E857-C95F-4597-A9BF-4A90B95D8AE0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{54640236-C4E6-4A05-8BCE-62843AC88A58}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{76BDF76F-678A-4AED-96A9-6435234CE770}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5D062324-B8B0-4955-AF1E-B5664229960D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8BBD9656-05C2-485B-A075-11B9A3F6F4DF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{72E622B3-D227-460A-A937-FD5267D611ED}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{126D52DD-EAA1-4FF2-A058-DE5ADED1F231}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7A644745-D583-4453-A1C1-54EEB5F72E24}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{AB8D8A1B-B3C6-4787-B225-101CA7FCB51B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3BD5B060-BB2B-46BD-BEDD-99EC37839F84}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8D85EC91-5A92-4D4F-89B1-8EE9FFA0B4A6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B58524F6-BA0D-47D8-A551-16C6259EEEA5}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{6A598086-E491-4152-8AB7-6C11BB706E9F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{467B7850-E890-481F-9AF2-9A3FBAB472E3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{CF03A752-9AF9-4076-BA67-252DC2E31B02}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0A9F186C-DBF9-4606-8BB4-928DED6C79F8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8FD0534E-C731-4924-A1FF-D4AF78465759}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2C91085F-83FC-4D21-BCF0-0DDDAD91804D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B0419D1C-D77F-4CD0-B6DC-2FD820D35F74}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{059ABA36-A17E-40A5-9501-BCB119409E57}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A85E9792-D1FF-4B3D-A785-AE34F8468869}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{76078AAD-F546-4972-AE01-4AA5D38D5385}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12786,7 +12786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FDD2DB1-B8E2-43DD-8C64-80DA5E718F6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8240CE9-276C-43CA-B327-53DD451D2EE8}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -14036,18 +14036,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{13BB9565-F29B-43C7-9395-4AAF9429E2EE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{96221D2B-9FEC-4DEB-8BD4-D0C11C6A8DDB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{422872A0-DCE0-4A79-B057-8AFFDEE52BE7}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A242617D-B43B-41F7-9E70-334ABB81C8EE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9002F186-C182-4DA6-8C43-BBF30B279348}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EF0551BF-CCAF-4895-89CE-8CCFEC08212B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DEDFFC52-A636-4BE3-811F-6C158660C27F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E3C4D869-1C50-4CFF-96A3-89DE19ADA8B8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{69169BBE-1EF7-4B91-8D1F-49ECE18D022B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B6A83105-E53D-4CE0-9402-2832341A4002}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F5E2CCD3-B76D-48A9-A4EF-EA4CEA5D34E3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{24B1228F-717E-4685-B969-DCC28F62459D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{080F00F3-B40A-4C50-9D81-E6CC363F71FE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{85B38FA4-E208-4982-B103-C4596329B757}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E70AA9EE-5994-4A2C-9B5C-A427B9B12448}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CB224EF6-8833-4500-9AD4-665F61D5BBC3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FFB5F64F-C1E9-40BA-8E1C-D92557BEA515}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A261A563-AD29-409C-B0F5-81211AA481B9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6F418CED-B8A9-4BC1-805B-EB00B2DC1E36}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EB571E64-1AC4-4EAC-A48C-F3E1C67F557A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{03F24A58-6057-4242-9124-108678ED2AB6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{435C6C4A-1259-4241-856E-7FE1EFA0BA98}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A1DD7972-4284-4BA8-8FA6-170FC86DED76}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D5EA39A7-BB93-4FE1-A2CF-F643BB2E1347}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14060,7 +14060,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D7D655-AEA4-4C70-93E2-5555DB3DCB9A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3472A57-F6FB-4A67-B8BF-4777136DA348}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -15310,18 +15310,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{83880132-766A-48C2-8BE1-87EF67A092E0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8EEB7171-BFCF-4952-B220-33229E03705D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{8D78BFBE-0463-4164-8537-12AECC526AA9}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{45AE6302-C1AE-4DCE-BA88-66C60A7919ED}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F540288E-64EB-43AE-960C-E3B5A7267944}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{5BF65A32-79D7-4BA1-B297-C8B4EA652092}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{837C675A-AE20-46BF-BF25-CB483CD660B2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{011FA534-B8F0-4EE7-A25B-B6C2534522CB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F8B9EA78-5418-4614-835B-A663BCC072C8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FBBD6D3C-AB75-4F8D-98DF-EFF008E7AF44}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D641EB19-9540-4FC0-BBFB-8D1B7F992A5C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9AF42DDA-754A-4A81-9BC6-DE44C5CA8F9E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AA0604EF-BA41-490C-BF36-52B490E63320}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7DCC14A9-79C1-4AC7-ABE6-E0FF214B13FD}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{00121519-2B9A-47D2-99EB-B143E6778739}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{6F4173A8-5EBF-4D9E-958B-2E5266077FB8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{64F2DA7C-ACBE-4F5C-8E9C-769F61A949F9}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{98AEBA78-ADE3-4A04-89B8-E65574E3A687}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D86C2F89-C007-488F-88FE-7D87BB9A3BD7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F9DF8807-0B6F-4921-8AB3-C7DDC9649807}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3162F2DA-284C-4C99-8EB5-DB4A8F398242}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C4F34339-5D0B-4020-A925-E9DAA14C7185}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3F4C1EF9-CC72-408D-8BE8-197AA87EC023}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{45A13F48-9765-4356-ABE1-79FABAF82EA7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15334,7 +15334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{995E00E4-EE65-48F0-8F79-F8AF00834A41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ACF8044-FCC9-41F8-A604-3E8FD72DD10C}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -16584,18 +16584,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5356E3B5-6286-4E92-95AF-030311C481F2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B80559BC-0D00-49C2-A033-F004E7884A43}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{AF8F7045-1B79-4934-A566-9384F844B23A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7EEE0AF5-9CC5-43D1-BF52-C2DF5ECA60C6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A7492FF5-B4AC-4E37-B14B-FCC371F7B815}"/>
-    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1A8FEAD0-56CD-4EED-903C-AEA7EE4BC0F2}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DAE17A1D-3A5A-41F6-A266-66DB59461AD7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B5B0DE0C-1448-4CA2-AA36-03BBF53F2B49}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4C707BA2-5D12-489B-8704-E77F010D9C1C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{297C4DA5-5C06-4904-983D-13C8D9253D5E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8CB14D34-C2D1-433C-9B87-FB7BCBD4FBA6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B1A1F237-8328-460A-8130-CEE155964C7C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{836C634C-F875-4944-B647-609C17BE6360}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3E4E3A49-ADA0-4BB4-9012-2E1AEC8862C6}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{B704181A-7249-4055-BD96-7C9FA9D869A9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{98F72429-DEE6-4622-A927-3560EEADB9F3}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E93F86C0-2048-4FC4-ACD3-AB998EEBAD71}"/>
+    <hyperlink ref="E5" location="'HAZİRAN '!A1" display="HAZİRAN" xr:uid="{4E8A3632-1EB8-47B9-A2A2-16359C87EAFF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D1911946-E69E-4DA5-B492-8CF8CF917CED}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1625CCAD-199E-405F-8CED-0FAA63FB3CA4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B21EB101-9867-40EB-92F1-981017FD9DBF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A6A5B2C7-EE79-4275-87A5-66E6D9409680}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{58F8A1EC-A50B-4337-AE78-719A41019C4E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E9B83C73-1269-46A8-9638-95DC02E6ACB6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
